--- a/DesignTable/Data/Table/Tables/buff.xlsx
+++ b/DesignTable/Data/Table/Tables/buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oh\Desktop\DesignGenerator\Data\Data_Export\Table\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectT\DesignTable\Data\Table\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69085C9C-7A3C-41BD-AA8A-F8AE661997AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5862163C-6C1C-44F8-8755-1901F8B35315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF2622E-310D-4A72-AFF4-F431EFCED8B8}"/>
+    <workbookView xWindow="-22365" yWindow="1065" windowWidth="21600" windowHeight="12570" xr2:uid="{6AF2622E-310D-4A72-AFF4-F431EFCED8B8}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="2" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
